--- a/fred_codes.xlsx
+++ b/fred_codes.xlsx
@@ -8,17 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrealandini/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA97154-0326-0047-9499-986C640A1BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618EFEAF-FADA-4141-AB5F-425F2EE7C707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="FRED codes" sheetId="1" r:id="rId1"/>
+    <sheet name="FRED codes" sheetId="3" r:id="rId1"/>
     <sheet name="Portfolio" sheetId="2" r:id="rId2"/>
+    <sheet name="FRED codes OLD" sheetId="1" r:id="rId3"/>
+    <sheet name="Portfolio OLD" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'FRED codes'!$A$1:$E$106</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Portfolio!$A$1:$D$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'FRED codes'!$A$1:$F$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'FRED codes OLD'!$A$1:$E$106</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Portfolio!$A$1:$D$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Portfolio OLD'!$A$1:$D$36</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="325">
   <si>
     <t>Name</t>
   </si>
@@ -1386,11 +1390,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F106"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08C33E96-5359-9344-AF02-9222616EDDC0}">
+  <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1664,10 +1668,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C14" t="s">
         <v>214</v>
@@ -1676,18 +1680,18 @@
         <v>215</v>
       </c>
       <c r="E14" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="F14" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C15" t="s">
         <v>214</v>
@@ -1696,18 +1700,18 @@
         <v>215</v>
       </c>
       <c r="E15" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="F15" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="B16" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="C16" t="s">
         <v>214</v>
@@ -1716,18 +1720,18 @@
         <v>215</v>
       </c>
       <c r="E16" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="F16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="C17" t="s">
         <v>214</v>
@@ -1736,18 +1740,18 @@
         <v>215</v>
       </c>
       <c r="E17" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="F17" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C18" t="s">
         <v>214</v>
@@ -1756,18 +1760,18 @@
         <v>215</v>
       </c>
       <c r="E18" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="F18" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B19" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="C19" t="s">
         <v>214</v>
@@ -1776,18 +1780,18 @@
         <v>215</v>
       </c>
       <c r="E19" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="F19" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C20" t="s">
         <v>214</v>
@@ -1796,18 +1800,18 @@
         <v>215</v>
       </c>
       <c r="E20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F20" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C21" t="s">
         <v>214</v>
@@ -1816,18 +1820,18 @@
         <v>215</v>
       </c>
       <c r="E21" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F21" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B22" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="C22" t="s">
         <v>214</v>
@@ -1836,18 +1840,18 @@
         <v>215</v>
       </c>
       <c r="E22" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F22" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C23" t="s">
         <v>214</v>
@@ -1856,7 +1860,7 @@
         <v>215</v>
       </c>
       <c r="E23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F23" t="s">
         <v>253</v>
@@ -1864,10 +1868,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C24" t="s">
         <v>214</v>
@@ -1876,7 +1880,7 @@
         <v>215</v>
       </c>
       <c r="E24" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F24" t="s">
         <v>253</v>
@@ -1884,10 +1888,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B25" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C25" t="s">
         <v>214</v>
@@ -1896,7 +1900,7 @@
         <v>215</v>
       </c>
       <c r="E25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F25" t="s">
         <v>253</v>
@@ -1904,10 +1908,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C26" t="s">
         <v>214</v>
@@ -1916,7 +1920,7 @@
         <v>215</v>
       </c>
       <c r="E26" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="F26" t="s">
         <v>253</v>
@@ -1924,10 +1928,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="C27" t="s">
         <v>214</v>
@@ -1936,7 +1940,7 @@
         <v>215</v>
       </c>
       <c r="E27" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="F27" t="s">
         <v>253</v>
@@ -1944,10 +1948,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="C28" t="s">
         <v>214</v>
@@ -1956,7 +1960,7 @@
         <v>215</v>
       </c>
       <c r="E28" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="F28" t="s">
         <v>253</v>
@@ -1964,10 +1968,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="C29" t="s">
         <v>214</v>
@@ -1976,7 +1980,7 @@
         <v>215</v>
       </c>
       <c r="E29" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="F29" t="s">
         <v>253</v>
@@ -1984,10 +1988,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="B30" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="C30" t="s">
         <v>214</v>
@@ -1996,7 +2000,7 @@
         <v>215</v>
       </c>
       <c r="E30" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="F30" t="s">
         <v>253</v>
@@ -2004,10 +2008,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B31" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="C31" t="s">
         <v>214</v>
@@ -2016,7 +2020,7 @@
         <v>215</v>
       </c>
       <c r="E31" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="F31" t="s">
         <v>253</v>
@@ -2024,10 +2028,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="C32" t="s">
         <v>214</v>
@@ -2036,7 +2040,7 @@
         <v>215</v>
       </c>
       <c r="E32" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="F32" t="s">
         <v>253</v>
@@ -2044,10 +2048,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="B33" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="C33" t="s">
         <v>214</v>
@@ -2056,7 +2060,7 @@
         <v>215</v>
       </c>
       <c r="E33" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="F33" t="s">
         <v>253</v>
@@ -2064,10 +2068,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B34" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C34" t="s">
         <v>214</v>
@@ -2076,38 +2080,38 @@
         <v>215</v>
       </c>
       <c r="E34" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="F34" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" t="s">
-        <v>129</v>
-      </c>
-      <c r="C35" t="s">
-        <v>214</v>
-      </c>
-      <c r="D35" t="s">
-        <v>215</v>
-      </c>
-      <c r="E35" t="s">
-        <v>236</v>
-      </c>
-      <c r="F35" t="s">
-        <v>253</v>
+    <row r="35" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="C36" t="s">
         <v>214</v>
@@ -2116,18 +2120,18 @@
         <v>215</v>
       </c>
       <c r="E36" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="F36" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B37" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="C37" t="s">
         <v>214</v>
@@ -2136,18 +2140,18 @@
         <v>215</v>
       </c>
       <c r="E37" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="F37" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="C38" t="s">
         <v>214</v>
@@ -2156,18 +2160,18 @@
         <v>215</v>
       </c>
       <c r="E38" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="F38" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B39" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C39" t="s">
         <v>214</v>
@@ -2176,18 +2180,18 @@
         <v>215</v>
       </c>
       <c r="E39" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="F39" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B40" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C40" t="s">
         <v>214</v>
@@ -2196,18 +2200,18 @@
         <v>215</v>
       </c>
       <c r="E40" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="F40" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B41" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C41" t="s">
         <v>214</v>
@@ -2216,18 +2220,18 @@
         <v>215</v>
       </c>
       <c r="E41" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F41" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B42" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="C42" t="s">
         <v>214</v>
@@ -2236,18 +2240,18 @@
         <v>215</v>
       </c>
       <c r="E42" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F42" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="B43" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="C43" t="s">
         <v>214</v>
@@ -2256,18 +2260,18 @@
         <v>215</v>
       </c>
       <c r="E43" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F43" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B44" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C44" t="s">
         <v>214</v>
@@ -2276,7 +2280,7 @@
         <v>215</v>
       </c>
       <c r="E44" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F44" t="s">
         <v>253</v>
@@ -2284,10 +2288,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B45" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C45" t="s">
         <v>214</v>
@@ -2296,7 +2300,7 @@
         <v>215</v>
       </c>
       <c r="E45" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F45" t="s">
         <v>253</v>
@@ -2304,10 +2308,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B46" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C46" t="s">
         <v>214</v>
@@ -2316,7 +2320,7 @@
         <v>215</v>
       </c>
       <c r="E46" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F46" t="s">
         <v>253</v>
@@ -2324,10 +2328,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B47" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C47" t="s">
         <v>214</v>
@@ -2336,18 +2340,18 @@
         <v>215</v>
       </c>
       <c r="E47" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F47" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="B48" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="C48" t="s">
         <v>214</v>
@@ -2356,18 +2360,18 @@
         <v>215</v>
       </c>
       <c r="E48" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F48" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B49" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C49" t="s">
         <v>214</v>
@@ -2376,18 +2380,18 @@
         <v>215</v>
       </c>
       <c r="E49" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F49" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B50" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="C50" t="s">
         <v>214</v>
@@ -2396,7 +2400,7 @@
         <v>215</v>
       </c>
       <c r="E50" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="F50" t="s">
         <v>253</v>
@@ -2404,10 +2408,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C51" t="s">
         <v>214</v>
@@ -2416,7 +2420,7 @@
         <v>215</v>
       </c>
       <c r="E51" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="F51" t="s">
         <v>253</v>
@@ -2424,10 +2428,10 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="B52" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="C52" t="s">
         <v>214</v>
@@ -2436,38 +2440,38 @@
         <v>215</v>
       </c>
       <c r="E52" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="F52" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="53" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>261</v>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" t="s">
+        <v>116</v>
+      </c>
+      <c r="C53" t="s">
+        <v>214</v>
+      </c>
+      <c r="D53" t="s">
+        <v>215</v>
+      </c>
+      <c r="E53" t="s">
+        <v>223</v>
+      </c>
+      <c r="F53" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="B54" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="C54" t="s">
         <v>214</v>
@@ -2476,18 +2480,18 @@
         <v>215</v>
       </c>
       <c r="E54" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="F54" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B55" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="C55" t="s">
         <v>214</v>
@@ -2496,18 +2500,18 @@
         <v>215</v>
       </c>
       <c r="E55" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="F55" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B56" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C56" t="s">
         <v>214</v>
@@ -2516,18 +2520,18 @@
         <v>215</v>
       </c>
       <c r="E56" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F56" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B57" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="C57" t="s">
         <v>214</v>
@@ -2536,18 +2540,18 @@
         <v>215</v>
       </c>
       <c r="E57" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F57" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B58" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C58" t="s">
         <v>214</v>
@@ -2556,18 +2560,18 @@
         <v>215</v>
       </c>
       <c r="E58" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F58" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="C59" t="s">
         <v>214</v>
@@ -2576,18 +2580,18 @@
         <v>215</v>
       </c>
       <c r="E59" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="F59" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="B60" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="C60" t="s">
         <v>214</v>
@@ -2596,18 +2600,18 @@
         <v>215</v>
       </c>
       <c r="E60" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="F60" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B61" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C61" t="s">
         <v>214</v>
@@ -2616,18 +2620,18 @@
         <v>215</v>
       </c>
       <c r="E61" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="F61" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B62" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C62" t="s">
         <v>214</v>
@@ -2636,18 +2640,18 @@
         <v>215</v>
       </c>
       <c r="E62" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="F62" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B63" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C63" t="s">
         <v>214</v>
@@ -2656,18 +2660,18 @@
         <v>215</v>
       </c>
       <c r="E63" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="F63" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B64" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C64" t="s">
         <v>214</v>
@@ -2676,38 +2680,38 @@
         <v>215</v>
       </c>
       <c r="E64" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="F64" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>31</v>
-      </c>
-      <c r="B65" t="s">
-        <v>136</v>
-      </c>
-      <c r="C65" t="s">
-        <v>214</v>
-      </c>
-      <c r="D65" t="s">
-        <v>215</v>
-      </c>
-      <c r="E65" t="s">
-        <v>243</v>
-      </c>
-      <c r="F65" t="s">
-        <v>253</v>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B66" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="C66" t="s">
         <v>214</v>
@@ -2716,18 +2720,18 @@
         <v>215</v>
       </c>
       <c r="E66" t="s">
-        <v>243</v>
+        <v>216</v>
       </c>
       <c r="F66" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B67" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="C67" t="s">
         <v>214</v>
@@ -2736,789 +2740,9 @@
         <v>215</v>
       </c>
       <c r="E67" t="s">
-        <v>243</v>
+        <v>216</v>
       </c>
       <c r="F67" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>30</v>
-      </c>
-      <c r="B68" t="s">
-        <v>135</v>
-      </c>
-      <c r="C68" t="s">
-        <v>214</v>
-      </c>
-      <c r="D68" t="s">
-        <v>215</v>
-      </c>
-      <c r="E68" t="s">
-        <v>242</v>
-      </c>
-      <c r="F68" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>52</v>
-      </c>
-      <c r="B69" t="s">
-        <v>157</v>
-      </c>
-      <c r="C69" t="s">
-        <v>214</v>
-      </c>
-      <c r="D69" t="s">
-        <v>215</v>
-      </c>
-      <c r="E69" t="s">
-        <v>242</v>
-      </c>
-      <c r="F69" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>98</v>
-      </c>
-      <c r="B70" t="s">
-        <v>203</v>
-      </c>
-      <c r="C70" t="s">
-        <v>214</v>
-      </c>
-      <c r="D70" t="s">
-        <v>215</v>
-      </c>
-      <c r="E70" t="s">
-        <v>242</v>
-      </c>
-      <c r="F70" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>10</v>
-      </c>
-      <c r="B71" t="s">
-        <v>115</v>
-      </c>
-      <c r="C71" t="s">
-        <v>214</v>
-      </c>
-      <c r="D71" t="s">
-        <v>215</v>
-      </c>
-      <c r="E71" t="s">
-        <v>222</v>
-      </c>
-      <c r="F71" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>53</v>
-      </c>
-      <c r="B72" t="s">
-        <v>158</v>
-      </c>
-      <c r="C72" t="s">
-        <v>214</v>
-      </c>
-      <c r="D72" t="s">
-        <v>215</v>
-      </c>
-      <c r="E72" t="s">
-        <v>222</v>
-      </c>
-      <c r="F72" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>95</v>
-      </c>
-      <c r="B73" t="s">
-        <v>200</v>
-      </c>
-      <c r="C73" t="s">
-        <v>214</v>
-      </c>
-      <c r="D73" t="s">
-        <v>215</v>
-      </c>
-      <c r="E73" t="s">
-        <v>222</v>
-      </c>
-      <c r="F73" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>19</v>
-      </c>
-      <c r="B74" t="s">
-        <v>124</v>
-      </c>
-      <c r="C74" t="s">
-        <v>214</v>
-      </c>
-      <c r="D74" t="s">
-        <v>215</v>
-      </c>
-      <c r="E74" t="s">
-        <v>231</v>
-      </c>
-      <c r="F74" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>68</v>
-      </c>
-      <c r="B75" t="s">
-        <v>173</v>
-      </c>
-      <c r="C75" t="s">
-        <v>214</v>
-      </c>
-      <c r="D75" t="s">
-        <v>215</v>
-      </c>
-      <c r="E75" t="s">
-        <v>231</v>
-      </c>
-      <c r="F75" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>96</v>
-      </c>
-      <c r="B76" t="s">
-        <v>201</v>
-      </c>
-      <c r="C76" t="s">
-        <v>214</v>
-      </c>
-      <c r="D76" t="s">
-        <v>215</v>
-      </c>
-      <c r="E76" t="s">
-        <v>231</v>
-      </c>
-      <c r="F76" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>28</v>
-      </c>
-      <c r="B77" t="s">
-        <v>133</v>
-      </c>
-      <c r="C77" t="s">
-        <v>214</v>
-      </c>
-      <c r="D77" t="s">
-        <v>215</v>
-      </c>
-      <c r="E77" t="s">
-        <v>240</v>
-      </c>
-      <c r="F77" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>64</v>
-      </c>
-      <c r="B78" t="s">
-        <v>169</v>
-      </c>
-      <c r="C78" t="s">
-        <v>214</v>
-      </c>
-      <c r="D78" t="s">
-        <v>215</v>
-      </c>
-      <c r="E78" t="s">
-        <v>240</v>
-      </c>
-      <c r="F78" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>94</v>
-      </c>
-      <c r="B79" t="s">
-        <v>199</v>
-      </c>
-      <c r="C79" t="s">
-        <v>214</v>
-      </c>
-      <c r="D79" t="s">
-        <v>215</v>
-      </c>
-      <c r="E79" t="s">
-        <v>240</v>
-      </c>
-      <c r="F79" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>23</v>
-      </c>
-      <c r="B80" t="s">
-        <v>128</v>
-      </c>
-      <c r="C80" t="s">
-        <v>214</v>
-      </c>
-      <c r="D80" t="s">
-        <v>215</v>
-      </c>
-      <c r="E80" t="s">
-        <v>235</v>
-      </c>
-      <c r="F80" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>61</v>
-      </c>
-      <c r="B81" t="s">
-        <v>166</v>
-      </c>
-      <c r="C81" t="s">
-        <v>214</v>
-      </c>
-      <c r="D81" t="s">
-        <v>215</v>
-      </c>
-      <c r="E81" t="s">
-        <v>235</v>
-      </c>
-      <c r="F81" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>104</v>
-      </c>
-      <c r="B82" t="s">
-        <v>209</v>
-      </c>
-      <c r="C82" t="s">
-        <v>214</v>
-      </c>
-      <c r="D82" t="s">
-        <v>215</v>
-      </c>
-      <c r="E82" t="s">
-        <v>235</v>
-      </c>
-      <c r="F82" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>35</v>
-      </c>
-      <c r="B83" t="s">
-        <v>140</v>
-      </c>
-      <c r="C83" t="s">
-        <v>214</v>
-      </c>
-      <c r="D83" t="s">
-        <v>215</v>
-      </c>
-      <c r="E83" t="s">
-        <v>247</v>
-      </c>
-      <c r="F83" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>67</v>
-      </c>
-      <c r="B84" t="s">
-        <v>172</v>
-      </c>
-      <c r="C84" t="s">
-        <v>214</v>
-      </c>
-      <c r="D84" t="s">
-        <v>215</v>
-      </c>
-      <c r="E84" t="s">
-        <v>247</v>
-      </c>
-      <c r="F84" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>107</v>
-      </c>
-      <c r="B85" t="s">
-        <v>212</v>
-      </c>
-      <c r="C85" t="s">
-        <v>214</v>
-      </c>
-      <c r="D85" t="s">
-        <v>215</v>
-      </c>
-      <c r="E85" t="s">
-        <v>247</v>
-      </c>
-      <c r="F85" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>36</v>
-      </c>
-      <c r="B86" t="s">
-        <v>141</v>
-      </c>
-      <c r="C86" t="s">
-        <v>214</v>
-      </c>
-      <c r="D86" t="s">
-        <v>215</v>
-      </c>
-      <c r="E86" t="s">
-        <v>248</v>
-      </c>
-      <c r="F86" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>58</v>
-      </c>
-      <c r="B87" t="s">
-        <v>163</v>
-      </c>
-      <c r="C87" t="s">
-        <v>214</v>
-      </c>
-      <c r="D87" t="s">
-        <v>215</v>
-      </c>
-      <c r="E87" t="s">
-        <v>248</v>
-      </c>
-      <c r="F87" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>105</v>
-      </c>
-      <c r="B88" t="s">
-        <v>210</v>
-      </c>
-      <c r="C88" t="s">
-        <v>214</v>
-      </c>
-      <c r="D88" t="s">
-        <v>215</v>
-      </c>
-      <c r="E88" t="s">
-        <v>248</v>
-      </c>
-      <c r="F88" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>11</v>
-      </c>
-      <c r="B89" t="s">
-        <v>116</v>
-      </c>
-      <c r="C89" t="s">
-        <v>214</v>
-      </c>
-      <c r="D89" t="s">
-        <v>215</v>
-      </c>
-      <c r="E89" t="s">
-        <v>223</v>
-      </c>
-      <c r="F89" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>65</v>
-      </c>
-      <c r="B90" t="s">
-        <v>170</v>
-      </c>
-      <c r="C90" t="s">
-        <v>214</v>
-      </c>
-      <c r="D90" t="s">
-        <v>215</v>
-      </c>
-      <c r="E90" t="s">
-        <v>223</v>
-      </c>
-      <c r="F90" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>89</v>
-      </c>
-      <c r="B91" t="s">
-        <v>194</v>
-      </c>
-      <c r="C91" t="s">
-        <v>214</v>
-      </c>
-      <c r="D91" t="s">
-        <v>215</v>
-      </c>
-      <c r="E91" t="s">
-        <v>223</v>
-      </c>
-      <c r="F91" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>25</v>
-      </c>
-      <c r="B92" t="s">
-        <v>130</v>
-      </c>
-      <c r="C92" t="s">
-        <v>214</v>
-      </c>
-      <c r="D92" t="s">
-        <v>215</v>
-      </c>
-      <c r="E92" t="s">
-        <v>237</v>
-      </c>
-      <c r="F92" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>62</v>
-      </c>
-      <c r="B93" t="s">
-        <v>167</v>
-      </c>
-      <c r="C93" t="s">
-        <v>214</v>
-      </c>
-      <c r="D93" t="s">
-        <v>215</v>
-      </c>
-      <c r="E93" t="s">
-        <v>237</v>
-      </c>
-      <c r="F93" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>84</v>
-      </c>
-      <c r="B94" t="s">
-        <v>189</v>
-      </c>
-      <c r="C94" t="s">
-        <v>214</v>
-      </c>
-      <c r="D94" t="s">
-        <v>215</v>
-      </c>
-      <c r="E94" t="s">
-        <v>237</v>
-      </c>
-      <c r="F94" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>15</v>
-      </c>
-      <c r="B95" t="s">
-        <v>120</v>
-      </c>
-      <c r="C95" t="s">
-        <v>214</v>
-      </c>
-      <c r="D95" t="s">
-        <v>215</v>
-      </c>
-      <c r="E95" t="s">
-        <v>227</v>
-      </c>
-      <c r="F95" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>48</v>
-      </c>
-      <c r="B96" t="s">
-        <v>153</v>
-      </c>
-      <c r="C96" t="s">
-        <v>214</v>
-      </c>
-      <c r="D96" t="s">
-        <v>215</v>
-      </c>
-      <c r="E96" t="s">
-        <v>227</v>
-      </c>
-      <c r="F96" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>87</v>
-      </c>
-      <c r="B97" t="s">
-        <v>192</v>
-      </c>
-      <c r="C97" t="s">
-        <v>214</v>
-      </c>
-      <c r="D97" t="s">
-        <v>215</v>
-      </c>
-      <c r="E97" t="s">
-        <v>227</v>
-      </c>
-      <c r="F97" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>13</v>
-      </c>
-      <c r="B98" t="s">
-        <v>118</v>
-      </c>
-      <c r="C98" t="s">
-        <v>214</v>
-      </c>
-      <c r="D98" t="s">
-        <v>215</v>
-      </c>
-      <c r="E98" t="s">
-        <v>225</v>
-      </c>
-      <c r="F98" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>45</v>
-      </c>
-      <c r="B99" t="s">
-        <v>150</v>
-      </c>
-      <c r="C99" t="s">
-        <v>214</v>
-      </c>
-      <c r="D99" t="s">
-        <v>215</v>
-      </c>
-      <c r="E99" t="s">
-        <v>225</v>
-      </c>
-      <c r="F99" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>83</v>
-      </c>
-      <c r="B100" t="s">
-        <v>188</v>
-      </c>
-      <c r="C100" t="s">
-        <v>214</v>
-      </c>
-      <c r="D100" t="s">
-        <v>215</v>
-      </c>
-      <c r="E100" t="s">
-        <v>225</v>
-      </c>
-      <c r="F100" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>5</v>
-      </c>
-      <c r="B101" t="s">
-        <v>110</v>
-      </c>
-      <c r="C101" t="s">
-        <v>214</v>
-      </c>
-      <c r="D101" t="s">
-        <v>215</v>
-      </c>
-      <c r="E101" t="s">
-        <v>217</v>
-      </c>
-      <c r="F101" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>42</v>
-      </c>
-      <c r="B102" t="s">
-        <v>147</v>
-      </c>
-      <c r="C102" t="s">
-        <v>214</v>
-      </c>
-      <c r="D102" t="s">
-        <v>215</v>
-      </c>
-      <c r="E102" t="s">
-        <v>217</v>
-      </c>
-      <c r="F102" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>77</v>
-      </c>
-      <c r="B103" t="s">
-        <v>182</v>
-      </c>
-      <c r="C103" t="s">
-        <v>214</v>
-      </c>
-      <c r="D103" t="s">
-        <v>215</v>
-      </c>
-      <c r="E103" t="s">
-        <v>217</v>
-      </c>
-      <c r="F103" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>40</v>
-      </c>
-      <c r="B105" t="s">
-        <v>145</v>
-      </c>
-      <c r="C105" t="s">
-        <v>214</v>
-      </c>
-      <c r="D105" t="s">
-        <v>215</v>
-      </c>
-      <c r="E105" t="s">
-        <v>216</v>
-      </c>
-      <c r="F105" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>74</v>
-      </c>
-      <c r="B106" t="s">
-        <v>179</v>
-      </c>
-      <c r="C106" t="s">
-        <v>214</v>
-      </c>
-      <c r="D106" t="s">
-        <v>215</v>
-      </c>
-      <c r="E106" t="s">
-        <v>216</v>
-      </c>
-      <c r="F106" t="s">
         <v>272</v>
       </c>
     </row>
@@ -3529,9 +2753,2491 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60561D98-9A45-5549-81BB-1E64C87C6D62}">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D3">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D4">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C5" t="s">
+        <v>283</v>
+      </c>
+      <c r="D5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C6" t="s">
+        <v>280</v>
+      </c>
+      <c r="D6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B7" t="s">
+        <v>290</v>
+      </c>
+      <c r="C7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D7">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C8" t="s">
+        <v>292</v>
+      </c>
+      <c r="D8" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B9" t="s">
+        <v>294</v>
+      </c>
+      <c r="C9" t="s">
+        <v>295</v>
+      </c>
+      <c r="D9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B10">
+        <v>999</v>
+      </c>
+      <c r="C10" t="s">
+        <v>280</v>
+      </c>
+      <c r="D10">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>244</v>
+      </c>
+      <c r="B11" t="s">
+        <v>297</v>
+      </c>
+      <c r="C11" t="s">
+        <v>280</v>
+      </c>
+      <c r="D11">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>230</v>
+      </c>
+      <c r="B12" t="s">
+        <v>299</v>
+      </c>
+      <c r="C12" t="s">
+        <v>300</v>
+      </c>
+      <c r="D12">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>218</v>
+      </c>
+      <c r="B13" t="s">
+        <v>301</v>
+      </c>
+      <c r="C13" t="s">
+        <v>302</v>
+      </c>
+      <c r="D13" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>250</v>
+      </c>
+      <c r="B14">
+        <v>999</v>
+      </c>
+      <c r="C14" t="s">
+        <v>280</v>
+      </c>
+      <c r="D14">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>243</v>
+      </c>
+      <c r="B15" t="s">
+        <v>308</v>
+      </c>
+      <c r="C15" t="s">
+        <v>280</v>
+      </c>
+      <c r="D15">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>240</v>
+      </c>
+      <c r="B16" t="s">
+        <v>312</v>
+      </c>
+      <c r="C16" t="s">
+        <v>280</v>
+      </c>
+      <c r="D16">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>247</v>
+      </c>
+      <c r="B17" t="s">
+        <v>314</v>
+      </c>
+      <c r="C17" t="s">
+        <v>280</v>
+      </c>
+      <c r="D17">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>248</v>
+      </c>
+      <c r="B18">
+        <v>999</v>
+      </c>
+      <c r="C18" t="s">
+        <v>280</v>
+      </c>
+      <c r="D18">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>223</v>
+      </c>
+      <c r="B19">
+        <v>999</v>
+      </c>
+      <c r="C19">
+        <v>999</v>
+      </c>
+      <c r="D19">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>237</v>
+      </c>
+      <c r="B20" t="s">
+        <v>315</v>
+      </c>
+      <c r="C20">
+        <v>999</v>
+      </c>
+      <c r="D20">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>225</v>
+      </c>
+      <c r="B21" t="s">
+        <v>317</v>
+      </c>
+      <c r="C21" t="s">
+        <v>318</v>
+      </c>
+      <c r="D21">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>217</v>
+      </c>
+      <c r="B22" t="s">
+        <v>319</v>
+      </c>
+      <c r="C22" t="s">
+        <v>320</v>
+      </c>
+      <c r="D22" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>216</v>
+      </c>
+      <c r="B23" t="s">
+        <v>322</v>
+      </c>
+      <c r="C23" t="s">
+        <v>298</v>
+      </c>
+      <c r="D23" t="s">
+        <v>323</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F106"/>
+  <sheetViews>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="A106" sqref="A106"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="91" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E4" t="s">
+        <v>224</v>
+      </c>
+      <c r="F4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E5" t="s">
+        <v>238</v>
+      </c>
+      <c r="F5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D8" t="s">
+        <v>215</v>
+      </c>
+      <c r="E8" t="s">
+        <v>241</v>
+      </c>
+      <c r="F8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D9" t="s">
+        <v>215</v>
+      </c>
+      <c r="E9" t="s">
+        <v>241</v>
+      </c>
+      <c r="F9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D10" t="s">
+        <v>215</v>
+      </c>
+      <c r="E10" t="s">
+        <v>241</v>
+      </c>
+      <c r="F10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" t="s">
+        <v>214</v>
+      </c>
+      <c r="D11" t="s">
+        <v>215</v>
+      </c>
+      <c r="E11" t="s">
+        <v>221</v>
+      </c>
+      <c r="F11" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D12" t="s">
+        <v>215</v>
+      </c>
+      <c r="E12" t="s">
+        <v>221</v>
+      </c>
+      <c r="F12" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C13" t="s">
+        <v>214</v>
+      </c>
+      <c r="D13" t="s">
+        <v>215</v>
+      </c>
+      <c r="E13" t="s">
+        <v>221</v>
+      </c>
+      <c r="F13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" t="s">
+        <v>214</v>
+      </c>
+      <c r="D14" t="s">
+        <v>215</v>
+      </c>
+      <c r="E14" t="s">
+        <v>229</v>
+      </c>
+      <c r="F14" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15" t="s">
+        <v>214</v>
+      </c>
+      <c r="D15" t="s">
+        <v>215</v>
+      </c>
+      <c r="E15" t="s">
+        <v>229</v>
+      </c>
+      <c r="F15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" t="s">
+        <v>204</v>
+      </c>
+      <c r="C16" t="s">
+        <v>214</v>
+      </c>
+      <c r="D16" t="s">
+        <v>215</v>
+      </c>
+      <c r="E16" t="s">
+        <v>229</v>
+      </c>
+      <c r="F16" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D17" t="s">
+        <v>215</v>
+      </c>
+      <c r="E17" t="s">
+        <v>232</v>
+      </c>
+      <c r="F17" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" t="s">
+        <v>176</v>
+      </c>
+      <c r="C18" t="s">
+        <v>214</v>
+      </c>
+      <c r="D18" t="s">
+        <v>215</v>
+      </c>
+      <c r="E18" t="s">
+        <v>232</v>
+      </c>
+      <c r="F18" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" t="s">
+        <v>211</v>
+      </c>
+      <c r="C19" t="s">
+        <v>214</v>
+      </c>
+      <c r="D19" t="s">
+        <v>215</v>
+      </c>
+      <c r="E19" t="s">
+        <v>232</v>
+      </c>
+      <c r="F19" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" t="s">
+        <v>214</v>
+      </c>
+      <c r="D20" t="s">
+        <v>215</v>
+      </c>
+      <c r="E20" t="s">
+        <v>234</v>
+      </c>
+      <c r="F20" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" t="s">
+        <v>165</v>
+      </c>
+      <c r="C21" t="s">
+        <v>214</v>
+      </c>
+      <c r="D21" t="s">
+        <v>215</v>
+      </c>
+      <c r="E21" t="s">
+        <v>234</v>
+      </c>
+      <c r="F21" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" t="s">
+        <v>197</v>
+      </c>
+      <c r="C22" t="s">
+        <v>214</v>
+      </c>
+      <c r="D22" t="s">
+        <v>215</v>
+      </c>
+      <c r="E22" t="s">
+        <v>234</v>
+      </c>
+      <c r="F22" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" t="s">
+        <v>214</v>
+      </c>
+      <c r="D23" t="s">
+        <v>215</v>
+      </c>
+      <c r="E23" t="s">
+        <v>220</v>
+      </c>
+      <c r="F23" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C24" t="s">
+        <v>214</v>
+      </c>
+      <c r="D24" t="s">
+        <v>215</v>
+      </c>
+      <c r="E24" t="s">
+        <v>220</v>
+      </c>
+      <c r="F24" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" t="s">
+        <v>183</v>
+      </c>
+      <c r="C25" t="s">
+        <v>214</v>
+      </c>
+      <c r="D25" t="s">
+        <v>215</v>
+      </c>
+      <c r="E25" t="s">
+        <v>220</v>
+      </c>
+      <c r="F25" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" t="s">
+        <v>214</v>
+      </c>
+      <c r="D26" t="s">
+        <v>215</v>
+      </c>
+      <c r="E26" t="s">
+        <v>246</v>
+      </c>
+      <c r="F26" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" t="s">
+        <v>178</v>
+      </c>
+      <c r="C27" t="s">
+        <v>214</v>
+      </c>
+      <c r="D27" t="s">
+        <v>215</v>
+      </c>
+      <c r="E27" t="s">
+        <v>246</v>
+      </c>
+      <c r="F27" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" t="s">
+        <v>202</v>
+      </c>
+      <c r="C28" t="s">
+        <v>214</v>
+      </c>
+      <c r="D28" t="s">
+        <v>215</v>
+      </c>
+      <c r="E28" t="s">
+        <v>246</v>
+      </c>
+      <c r="F28" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" t="s">
+        <v>214</v>
+      </c>
+      <c r="D29" t="s">
+        <v>215</v>
+      </c>
+      <c r="E29" t="s">
+        <v>226</v>
+      </c>
+      <c r="F29" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" t="s">
+        <v>154</v>
+      </c>
+      <c r="C30" t="s">
+        <v>214</v>
+      </c>
+      <c r="D30" t="s">
+        <v>215</v>
+      </c>
+      <c r="E30" t="s">
+        <v>226</v>
+      </c>
+      <c r="F30" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" t="s">
+        <v>186</v>
+      </c>
+      <c r="C31" t="s">
+        <v>214</v>
+      </c>
+      <c r="D31" t="s">
+        <v>215</v>
+      </c>
+      <c r="E31" t="s">
+        <v>226</v>
+      </c>
+      <c r="F31" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" t="s">
+        <v>214</v>
+      </c>
+      <c r="D32" t="s">
+        <v>215</v>
+      </c>
+      <c r="E32" t="s">
+        <v>219</v>
+      </c>
+      <c r="F32" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" t="s">
+        <v>149</v>
+      </c>
+      <c r="C33" t="s">
+        <v>214</v>
+      </c>
+      <c r="D33" t="s">
+        <v>215</v>
+      </c>
+      <c r="E33" t="s">
+        <v>219</v>
+      </c>
+      <c r="F33" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" t="s">
+        <v>181</v>
+      </c>
+      <c r="C34" t="s">
+        <v>214</v>
+      </c>
+      <c r="D34" t="s">
+        <v>215</v>
+      </c>
+      <c r="E34" t="s">
+        <v>219</v>
+      </c>
+      <c r="F34" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" t="s">
+        <v>214</v>
+      </c>
+      <c r="D35" t="s">
+        <v>215</v>
+      </c>
+      <c r="E35" t="s">
+        <v>236</v>
+      </c>
+      <c r="F35" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" t="s">
+        <v>162</v>
+      </c>
+      <c r="C36" t="s">
+        <v>214</v>
+      </c>
+      <c r="D36" t="s">
+        <v>215</v>
+      </c>
+      <c r="E36" t="s">
+        <v>236</v>
+      </c>
+      <c r="F36" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" t="s">
+        <v>191</v>
+      </c>
+      <c r="C37" t="s">
+        <v>214</v>
+      </c>
+      <c r="D37" t="s">
+        <v>215</v>
+      </c>
+      <c r="E37" t="s">
+        <v>236</v>
+      </c>
+      <c r="F37" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" t="s">
+        <v>214</v>
+      </c>
+      <c r="D38" t="s">
+        <v>215</v>
+      </c>
+      <c r="E38" t="s">
+        <v>233</v>
+      </c>
+      <c r="F38" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" t="s">
+        <v>177</v>
+      </c>
+      <c r="C39" t="s">
+        <v>214</v>
+      </c>
+      <c r="D39" t="s">
+        <v>215</v>
+      </c>
+      <c r="E39" t="s">
+        <v>233</v>
+      </c>
+      <c r="F39" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" t="s">
+        <v>207</v>
+      </c>
+      <c r="C40" t="s">
+        <v>214</v>
+      </c>
+      <c r="D40" t="s">
+        <v>215</v>
+      </c>
+      <c r="E40" t="s">
+        <v>233</v>
+      </c>
+      <c r="F40" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" t="s">
+        <v>142</v>
+      </c>
+      <c r="C41" t="s">
+        <v>214</v>
+      </c>
+      <c r="D41" t="s">
+        <v>215</v>
+      </c>
+      <c r="E41" t="s">
+        <v>249</v>
+      </c>
+      <c r="F41" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" t="s">
+        <v>175</v>
+      </c>
+      <c r="C42" t="s">
+        <v>214</v>
+      </c>
+      <c r="D42" t="s">
+        <v>215</v>
+      </c>
+      <c r="E42" t="s">
+        <v>249</v>
+      </c>
+      <c r="F42" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43" t="s">
+        <v>213</v>
+      </c>
+      <c r="C43" t="s">
+        <v>214</v>
+      </c>
+      <c r="D43" t="s">
+        <v>215</v>
+      </c>
+      <c r="E43" t="s">
+        <v>249</v>
+      </c>
+      <c r="F43" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" t="s">
+        <v>137</v>
+      </c>
+      <c r="C44" t="s">
+        <v>214</v>
+      </c>
+      <c r="D44" t="s">
+        <v>215</v>
+      </c>
+      <c r="E44" t="s">
+        <v>244</v>
+      </c>
+      <c r="F44" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" t="s">
+        <v>171</v>
+      </c>
+      <c r="C45" t="s">
+        <v>214</v>
+      </c>
+      <c r="D45" t="s">
+        <v>215</v>
+      </c>
+      <c r="E45" t="s">
+        <v>244</v>
+      </c>
+      <c r="F45" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" t="s">
+        <v>196</v>
+      </c>
+      <c r="C46" t="s">
+        <v>214</v>
+      </c>
+      <c r="D46" t="s">
+        <v>215</v>
+      </c>
+      <c r="E46" t="s">
+        <v>244</v>
+      </c>
+      <c r="F46" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47" t="s">
+        <v>138</v>
+      </c>
+      <c r="C47" t="s">
+        <v>214</v>
+      </c>
+      <c r="D47" t="s">
+        <v>215</v>
+      </c>
+      <c r="E47" t="s">
+        <v>245</v>
+      </c>
+      <c r="F47" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" t="s">
+        <v>159</v>
+      </c>
+      <c r="C48" t="s">
+        <v>214</v>
+      </c>
+      <c r="D48" t="s">
+        <v>215</v>
+      </c>
+      <c r="E48" t="s">
+        <v>245</v>
+      </c>
+      <c r="F48" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49" t="s">
+        <v>208</v>
+      </c>
+      <c r="C49" t="s">
+        <v>214</v>
+      </c>
+      <c r="D49" t="s">
+        <v>215</v>
+      </c>
+      <c r="E49" t="s">
+        <v>245</v>
+      </c>
+      <c r="F49" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" t="s">
+        <v>123</v>
+      </c>
+      <c r="C50" t="s">
+        <v>214</v>
+      </c>
+      <c r="D50" t="s">
+        <v>215</v>
+      </c>
+      <c r="E50" t="s">
+        <v>230</v>
+      </c>
+      <c r="F50" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" t="s">
+        <v>168</v>
+      </c>
+      <c r="C51" t="s">
+        <v>214</v>
+      </c>
+      <c r="D51" t="s">
+        <v>215</v>
+      </c>
+      <c r="E51" t="s">
+        <v>230</v>
+      </c>
+      <c r="F51" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>80</v>
+      </c>
+      <c r="B52" t="s">
+        <v>185</v>
+      </c>
+      <c r="C52" t="s">
+        <v>214</v>
+      </c>
+      <c r="D52" t="s">
+        <v>215</v>
+      </c>
+      <c r="E52" t="s">
+        <v>230</v>
+      </c>
+      <c r="F52" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>39</v>
+      </c>
+      <c r="B54" t="s">
+        <v>144</v>
+      </c>
+      <c r="C54" t="s">
+        <v>214</v>
+      </c>
+      <c r="D54" t="s">
+        <v>215</v>
+      </c>
+      <c r="E54" t="s">
+        <v>218</v>
+      </c>
+      <c r="F54" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>75</v>
+      </c>
+      <c r="B55" t="s">
+        <v>180</v>
+      </c>
+      <c r="C55" t="s">
+        <v>214</v>
+      </c>
+      <c r="D55" t="s">
+        <v>215</v>
+      </c>
+      <c r="E55" t="s">
+        <v>218</v>
+      </c>
+      <c r="F55" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" t="s">
+        <v>132</v>
+      </c>
+      <c r="C56" t="s">
+        <v>214</v>
+      </c>
+      <c r="D56" t="s">
+        <v>215</v>
+      </c>
+      <c r="E56" t="s">
+        <v>239</v>
+      </c>
+      <c r="F56" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>51</v>
+      </c>
+      <c r="B57" t="s">
+        <v>156</v>
+      </c>
+      <c r="C57" t="s">
+        <v>214</v>
+      </c>
+      <c r="D57" t="s">
+        <v>215</v>
+      </c>
+      <c r="E57" t="s">
+        <v>239</v>
+      </c>
+      <c r="F57" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>88</v>
+      </c>
+      <c r="B58" t="s">
+        <v>193</v>
+      </c>
+      <c r="C58" t="s">
+        <v>214</v>
+      </c>
+      <c r="D58" t="s">
+        <v>215</v>
+      </c>
+      <c r="E58" t="s">
+        <v>239</v>
+      </c>
+      <c r="F58" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>38</v>
+      </c>
+      <c r="B59" t="s">
+        <v>143</v>
+      </c>
+      <c r="C59" t="s">
+        <v>214</v>
+      </c>
+      <c r="D59" t="s">
+        <v>215</v>
+      </c>
+      <c r="E59" t="s">
+        <v>250</v>
+      </c>
+      <c r="F59" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60" t="s">
+        <v>174</v>
+      </c>
+      <c r="C60" t="s">
+        <v>214</v>
+      </c>
+      <c r="D60" t="s">
+        <v>215</v>
+      </c>
+      <c r="E60" t="s">
+        <v>250</v>
+      </c>
+      <c r="F60" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>93</v>
+      </c>
+      <c r="B61" t="s">
+        <v>198</v>
+      </c>
+      <c r="C61" t="s">
+        <v>214</v>
+      </c>
+      <c r="D61" t="s">
+        <v>215</v>
+      </c>
+      <c r="E61" t="s">
+        <v>250</v>
+      </c>
+      <c r="F61" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>16</v>
+      </c>
+      <c r="B62" t="s">
+        <v>121</v>
+      </c>
+      <c r="C62" t="s">
+        <v>214</v>
+      </c>
+      <c r="D62" t="s">
+        <v>215</v>
+      </c>
+      <c r="E62" t="s">
+        <v>228</v>
+      </c>
+      <c r="F62" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>50</v>
+      </c>
+      <c r="B63" t="s">
+        <v>155</v>
+      </c>
+      <c r="C63" t="s">
+        <v>214</v>
+      </c>
+      <c r="D63" t="s">
+        <v>215</v>
+      </c>
+      <c r="E63" t="s">
+        <v>228</v>
+      </c>
+      <c r="F63" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>85</v>
+      </c>
+      <c r="B64" t="s">
+        <v>190</v>
+      </c>
+      <c r="C64" t="s">
+        <v>214</v>
+      </c>
+      <c r="D64" t="s">
+        <v>215</v>
+      </c>
+      <c r="E64" t="s">
+        <v>228</v>
+      </c>
+      <c r="F64" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>31</v>
+      </c>
+      <c r="B65" t="s">
+        <v>136</v>
+      </c>
+      <c r="C65" t="s">
+        <v>214</v>
+      </c>
+      <c r="D65" t="s">
+        <v>215</v>
+      </c>
+      <c r="E65" t="s">
+        <v>243</v>
+      </c>
+      <c r="F65" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>59</v>
+      </c>
+      <c r="B66" t="s">
+        <v>164</v>
+      </c>
+      <c r="C66" t="s">
+        <v>214</v>
+      </c>
+      <c r="D66" t="s">
+        <v>215</v>
+      </c>
+      <c r="E66" t="s">
+        <v>243</v>
+      </c>
+      <c r="F66" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>90</v>
+      </c>
+      <c r="B67" t="s">
+        <v>195</v>
+      </c>
+      <c r="C67" t="s">
+        <v>214</v>
+      </c>
+      <c r="D67" t="s">
+        <v>215</v>
+      </c>
+      <c r="E67" t="s">
+        <v>243</v>
+      </c>
+      <c r="F67" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>30</v>
+      </c>
+      <c r="B68" t="s">
+        <v>135</v>
+      </c>
+      <c r="C68" t="s">
+        <v>214</v>
+      </c>
+      <c r="D68" t="s">
+        <v>215</v>
+      </c>
+      <c r="E68" t="s">
+        <v>242</v>
+      </c>
+      <c r="F68" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>52</v>
+      </c>
+      <c r="B69" t="s">
+        <v>157</v>
+      </c>
+      <c r="C69" t="s">
+        <v>214</v>
+      </c>
+      <c r="D69" t="s">
+        <v>215</v>
+      </c>
+      <c r="E69" t="s">
+        <v>242</v>
+      </c>
+      <c r="F69" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>98</v>
+      </c>
+      <c r="B70" t="s">
+        <v>203</v>
+      </c>
+      <c r="C70" t="s">
+        <v>214</v>
+      </c>
+      <c r="D70" t="s">
+        <v>215</v>
+      </c>
+      <c r="E70" t="s">
+        <v>242</v>
+      </c>
+      <c r="F70" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" t="s">
+        <v>115</v>
+      </c>
+      <c r="C71" t="s">
+        <v>214</v>
+      </c>
+      <c r="D71" t="s">
+        <v>215</v>
+      </c>
+      <c r="E71" t="s">
+        <v>222</v>
+      </c>
+      <c r="F71" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>53</v>
+      </c>
+      <c r="B72" t="s">
+        <v>158</v>
+      </c>
+      <c r="C72" t="s">
+        <v>214</v>
+      </c>
+      <c r="D72" t="s">
+        <v>215</v>
+      </c>
+      <c r="E72" t="s">
+        <v>222</v>
+      </c>
+      <c r="F72" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>95</v>
+      </c>
+      <c r="B73" t="s">
+        <v>200</v>
+      </c>
+      <c r="C73" t="s">
+        <v>214</v>
+      </c>
+      <c r="D73" t="s">
+        <v>215</v>
+      </c>
+      <c r="E73" t="s">
+        <v>222</v>
+      </c>
+      <c r="F73" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>19</v>
+      </c>
+      <c r="B74" t="s">
+        <v>124</v>
+      </c>
+      <c r="C74" t="s">
+        <v>214</v>
+      </c>
+      <c r="D74" t="s">
+        <v>215</v>
+      </c>
+      <c r="E74" t="s">
+        <v>231</v>
+      </c>
+      <c r="F74" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>68</v>
+      </c>
+      <c r="B75" t="s">
+        <v>173</v>
+      </c>
+      <c r="C75" t="s">
+        <v>214</v>
+      </c>
+      <c r="D75" t="s">
+        <v>215</v>
+      </c>
+      <c r="E75" t="s">
+        <v>231</v>
+      </c>
+      <c r="F75" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>96</v>
+      </c>
+      <c r="B76" t="s">
+        <v>201</v>
+      </c>
+      <c r="C76" t="s">
+        <v>214</v>
+      </c>
+      <c r="D76" t="s">
+        <v>215</v>
+      </c>
+      <c r="E76" t="s">
+        <v>231</v>
+      </c>
+      <c r="F76" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>28</v>
+      </c>
+      <c r="B77" t="s">
+        <v>133</v>
+      </c>
+      <c r="C77" t="s">
+        <v>214</v>
+      </c>
+      <c r="D77" t="s">
+        <v>215</v>
+      </c>
+      <c r="E77" t="s">
+        <v>240</v>
+      </c>
+      <c r="F77" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>64</v>
+      </c>
+      <c r="B78" t="s">
+        <v>169</v>
+      </c>
+      <c r="C78" t="s">
+        <v>214</v>
+      </c>
+      <c r="D78" t="s">
+        <v>215</v>
+      </c>
+      <c r="E78" t="s">
+        <v>240</v>
+      </c>
+      <c r="F78" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>94</v>
+      </c>
+      <c r="B79" t="s">
+        <v>199</v>
+      </c>
+      <c r="C79" t="s">
+        <v>214</v>
+      </c>
+      <c r="D79" t="s">
+        <v>215</v>
+      </c>
+      <c r="E79" t="s">
+        <v>240</v>
+      </c>
+      <c r="F79" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>23</v>
+      </c>
+      <c r="B80" t="s">
+        <v>128</v>
+      </c>
+      <c r="C80" t="s">
+        <v>214</v>
+      </c>
+      <c r="D80" t="s">
+        <v>215</v>
+      </c>
+      <c r="E80" t="s">
+        <v>235</v>
+      </c>
+      <c r="F80" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>61</v>
+      </c>
+      <c r="B81" t="s">
+        <v>166</v>
+      </c>
+      <c r="C81" t="s">
+        <v>214</v>
+      </c>
+      <c r="D81" t="s">
+        <v>215</v>
+      </c>
+      <c r="E81" t="s">
+        <v>235</v>
+      </c>
+      <c r="F81" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>104</v>
+      </c>
+      <c r="B82" t="s">
+        <v>209</v>
+      </c>
+      <c r="C82" t="s">
+        <v>214</v>
+      </c>
+      <c r="D82" t="s">
+        <v>215</v>
+      </c>
+      <c r="E82" t="s">
+        <v>235</v>
+      </c>
+      <c r="F82" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>35</v>
+      </c>
+      <c r="B83" t="s">
+        <v>140</v>
+      </c>
+      <c r="C83" t="s">
+        <v>214</v>
+      </c>
+      <c r="D83" t="s">
+        <v>215</v>
+      </c>
+      <c r="E83" t="s">
+        <v>247</v>
+      </c>
+      <c r="F83" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>67</v>
+      </c>
+      <c r="B84" t="s">
+        <v>172</v>
+      </c>
+      <c r="C84" t="s">
+        <v>214</v>
+      </c>
+      <c r="D84" t="s">
+        <v>215</v>
+      </c>
+      <c r="E84" t="s">
+        <v>247</v>
+      </c>
+      <c r="F84" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>107</v>
+      </c>
+      <c r="B85" t="s">
+        <v>212</v>
+      </c>
+      <c r="C85" t="s">
+        <v>214</v>
+      </c>
+      <c r="D85" t="s">
+        <v>215</v>
+      </c>
+      <c r="E85" t="s">
+        <v>247</v>
+      </c>
+      <c r="F85" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>36</v>
+      </c>
+      <c r="B86" t="s">
+        <v>141</v>
+      </c>
+      <c r="C86" t="s">
+        <v>214</v>
+      </c>
+      <c r="D86" t="s">
+        <v>215</v>
+      </c>
+      <c r="E86" t="s">
+        <v>248</v>
+      </c>
+      <c r="F86" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>58</v>
+      </c>
+      <c r="B87" t="s">
+        <v>163</v>
+      </c>
+      <c r="C87" t="s">
+        <v>214</v>
+      </c>
+      <c r="D87" t="s">
+        <v>215</v>
+      </c>
+      <c r="E87" t="s">
+        <v>248</v>
+      </c>
+      <c r="F87" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>105</v>
+      </c>
+      <c r="B88" t="s">
+        <v>210</v>
+      </c>
+      <c r="C88" t="s">
+        <v>214</v>
+      </c>
+      <c r="D88" t="s">
+        <v>215</v>
+      </c>
+      <c r="E88" t="s">
+        <v>248</v>
+      </c>
+      <c r="F88" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>11</v>
+      </c>
+      <c r="B89" t="s">
+        <v>116</v>
+      </c>
+      <c r="C89" t="s">
+        <v>214</v>
+      </c>
+      <c r="D89" t="s">
+        <v>215</v>
+      </c>
+      <c r="E89" t="s">
+        <v>223</v>
+      </c>
+      <c r="F89" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>65</v>
+      </c>
+      <c r="B90" t="s">
+        <v>170</v>
+      </c>
+      <c r="C90" t="s">
+        <v>214</v>
+      </c>
+      <c r="D90" t="s">
+        <v>215</v>
+      </c>
+      <c r="E90" t="s">
+        <v>223</v>
+      </c>
+      <c r="F90" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>194</v>
+      </c>
+      <c r="C91" t="s">
+        <v>214</v>
+      </c>
+      <c r="D91" t="s">
+        <v>215</v>
+      </c>
+      <c r="E91" t="s">
+        <v>223</v>
+      </c>
+      <c r="F91" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>25</v>
+      </c>
+      <c r="B92" t="s">
+        <v>130</v>
+      </c>
+      <c r="C92" t="s">
+        <v>214</v>
+      </c>
+      <c r="D92" t="s">
+        <v>215</v>
+      </c>
+      <c r="E92" t="s">
+        <v>237</v>
+      </c>
+      <c r="F92" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>62</v>
+      </c>
+      <c r="B93" t="s">
+        <v>167</v>
+      </c>
+      <c r="C93" t="s">
+        <v>214</v>
+      </c>
+      <c r="D93" t="s">
+        <v>215</v>
+      </c>
+      <c r="E93" t="s">
+        <v>237</v>
+      </c>
+      <c r="F93" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>84</v>
+      </c>
+      <c r="B94" t="s">
+        <v>189</v>
+      </c>
+      <c r="C94" t="s">
+        <v>214</v>
+      </c>
+      <c r="D94" t="s">
+        <v>215</v>
+      </c>
+      <c r="E94" t="s">
+        <v>237</v>
+      </c>
+      <c r="F94" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>15</v>
+      </c>
+      <c r="B95" t="s">
+        <v>120</v>
+      </c>
+      <c r="C95" t="s">
+        <v>214</v>
+      </c>
+      <c r="D95" t="s">
+        <v>215</v>
+      </c>
+      <c r="E95" t="s">
+        <v>227</v>
+      </c>
+      <c r="F95" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>48</v>
+      </c>
+      <c r="B96" t="s">
+        <v>153</v>
+      </c>
+      <c r="C96" t="s">
+        <v>214</v>
+      </c>
+      <c r="D96" t="s">
+        <v>215</v>
+      </c>
+      <c r="E96" t="s">
+        <v>227</v>
+      </c>
+      <c r="F96" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>87</v>
+      </c>
+      <c r="B97" t="s">
+        <v>192</v>
+      </c>
+      <c r="C97" t="s">
+        <v>214</v>
+      </c>
+      <c r="D97" t="s">
+        <v>215</v>
+      </c>
+      <c r="E97" t="s">
+        <v>227</v>
+      </c>
+      <c r="F97" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>13</v>
+      </c>
+      <c r="B98" t="s">
+        <v>118</v>
+      </c>
+      <c r="C98" t="s">
+        <v>214</v>
+      </c>
+      <c r="D98" t="s">
+        <v>215</v>
+      </c>
+      <c r="E98" t="s">
+        <v>225</v>
+      </c>
+      <c r="F98" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>45</v>
+      </c>
+      <c r="B99" t="s">
+        <v>150</v>
+      </c>
+      <c r="C99" t="s">
+        <v>214</v>
+      </c>
+      <c r="D99" t="s">
+        <v>215</v>
+      </c>
+      <c r="E99" t="s">
+        <v>225</v>
+      </c>
+      <c r="F99" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>83</v>
+      </c>
+      <c r="B100" t="s">
+        <v>188</v>
+      </c>
+      <c r="C100" t="s">
+        <v>214</v>
+      </c>
+      <c r="D100" t="s">
+        <v>215</v>
+      </c>
+      <c r="E100" t="s">
+        <v>225</v>
+      </c>
+      <c r="F100" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" t="s">
+        <v>110</v>
+      </c>
+      <c r="C101" t="s">
+        <v>214</v>
+      </c>
+      <c r="D101" t="s">
+        <v>215</v>
+      </c>
+      <c r="E101" t="s">
+        <v>217</v>
+      </c>
+      <c r="F101" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>42</v>
+      </c>
+      <c r="B102" t="s">
+        <v>147</v>
+      </c>
+      <c r="C102" t="s">
+        <v>214</v>
+      </c>
+      <c r="D102" t="s">
+        <v>215</v>
+      </c>
+      <c r="E102" t="s">
+        <v>217</v>
+      </c>
+      <c r="F102" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>77</v>
+      </c>
+      <c r="B103" t="s">
+        <v>182</v>
+      </c>
+      <c r="C103" t="s">
+        <v>214</v>
+      </c>
+      <c r="D103" t="s">
+        <v>215</v>
+      </c>
+      <c r="E103" t="s">
+        <v>217</v>
+      </c>
+      <c r="F103" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>40</v>
+      </c>
+      <c r="B105" t="s">
+        <v>145</v>
+      </c>
+      <c r="C105" t="s">
+        <v>214</v>
+      </c>
+      <c r="D105" t="s">
+        <v>215</v>
+      </c>
+      <c r="E105" t="s">
+        <v>216</v>
+      </c>
+      <c r="F105" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>74</v>
+      </c>
+      <c r="B106" t="s">
+        <v>179</v>
+      </c>
+      <c r="C106" t="s">
+        <v>214</v>
+      </c>
+      <c r="D106" t="s">
+        <v>215</v>
+      </c>
+      <c r="E106" t="s">
+        <v>216</v>
+      </c>
+      <c r="F106" t="s">
+        <v>272</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C11290-B497-7143-A4A7-CD25FC54372B}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>

--- a/fred_codes.xlsx
+++ b/fred_codes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrealandini/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618EFEAF-FADA-4141-AB5F-425F2EE7C707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A90FB1-B39D-544E-AF98-A255DF4A24CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="15360" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FRED codes" sheetId="3" r:id="rId1"/>
@@ -19,9 +19,9 @@
     <sheet name="Portfolio OLD" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'FRED codes'!$A$1:$F$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'FRED codes'!$A$1:$F$64</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'FRED codes OLD'!$A$1:$E$106</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Portfolio!$A$1:$D$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Portfolio!$A$1:$D$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Portfolio OLD'!$A$1:$D$36</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="325">
   <si>
     <t>Name</t>
   </si>
@@ -1391,10 +1391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08C33E96-5359-9344-AF02-9222616EDDC0}">
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1668,10 +1668,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="C14" t="s">
         <v>214</v>
@@ -1680,7 +1680,7 @@
         <v>215</v>
       </c>
       <c r="E14" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="F14" t="s">
         <v>253</v>
@@ -1688,10 +1688,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="C15" t="s">
         <v>214</v>
@@ -1700,7 +1700,7 @@
         <v>215</v>
       </c>
       <c r="E15" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="F15" t="s">
         <v>253</v>
@@ -1708,10 +1708,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="B16" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="C16" t="s">
         <v>214</v>
@@ -1720,7 +1720,7 @@
         <v>215</v>
       </c>
       <c r="E16" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="F16" t="s">
         <v>253</v>
@@ -1728,10 +1728,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="C17" t="s">
         <v>214</v>
@@ -1740,7 +1740,7 @@
         <v>215</v>
       </c>
       <c r="E17" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="F17" t="s">
         <v>253</v>
@@ -1748,10 +1748,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="C18" t="s">
         <v>214</v>
@@ -1760,7 +1760,7 @@
         <v>215</v>
       </c>
       <c r="E18" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="F18" t="s">
         <v>253</v>
@@ -1768,10 +1768,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B19" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="C19" t="s">
         <v>214</v>
@@ -1780,7 +1780,7 @@
         <v>215</v>
       </c>
       <c r="E19" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="F19" t="s">
         <v>253</v>
@@ -1788,10 +1788,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C20" t="s">
         <v>214</v>
@@ -1800,7 +1800,7 @@
         <v>215</v>
       </c>
       <c r="E20" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="F20" t="s">
         <v>253</v>
@@ -1808,10 +1808,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C21" t="s">
         <v>214</v>
@@ -1820,7 +1820,7 @@
         <v>215</v>
       </c>
       <c r="E21" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="F21" t="s">
         <v>253</v>
@@ -1828,10 +1828,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B22" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C22" t="s">
         <v>214</v>
@@ -1840,7 +1840,7 @@
         <v>215</v>
       </c>
       <c r="E22" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="F22" t="s">
         <v>253</v>
@@ -1848,10 +1848,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="C23" t="s">
         <v>214</v>
@@ -1860,7 +1860,7 @@
         <v>215</v>
       </c>
       <c r="E23" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="F23" t="s">
         <v>253</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C24" t="s">
         <v>214</v>
@@ -1880,7 +1880,7 @@
         <v>215</v>
       </c>
       <c r="E24" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="F24" t="s">
         <v>253</v>
@@ -1888,10 +1888,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B25" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="C25" t="s">
         <v>214</v>
@@ -1900,7 +1900,7 @@
         <v>215</v>
       </c>
       <c r="E25" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="F25" t="s">
         <v>253</v>
@@ -1908,10 +1908,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C26" t="s">
         <v>214</v>
@@ -1920,7 +1920,7 @@
         <v>215</v>
       </c>
       <c r="E26" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="F26" t="s">
         <v>253</v>
@@ -1928,10 +1928,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B27" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="C27" t="s">
         <v>214</v>
@@ -1940,7 +1940,7 @@
         <v>215</v>
       </c>
       <c r="E27" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="F27" t="s">
         <v>253</v>
@@ -1948,10 +1948,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B28" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C28" t="s">
         <v>214</v>
@@ -1960,7 +1960,7 @@
         <v>215</v>
       </c>
       <c r="E28" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="F28" t="s">
         <v>253</v>
@@ -1968,10 +1968,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C29" t="s">
         <v>214</v>
@@ -1980,7 +1980,7 @@
         <v>215</v>
       </c>
       <c r="E29" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="F29" t="s">
         <v>253</v>
@@ -1988,10 +1988,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B30" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C30" t="s">
         <v>214</v>
@@ -2000,7 +2000,7 @@
         <v>215</v>
       </c>
       <c r="E30" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="F30" t="s">
         <v>253</v>
@@ -2008,10 +2008,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B31" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="C31" t="s">
         <v>214</v>
@@ -2020,38 +2020,38 @@
         <v>215</v>
       </c>
       <c r="E31" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="F31" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32" t="s">
-        <v>123</v>
-      </c>
-      <c r="C32" t="s">
-        <v>214</v>
-      </c>
-      <c r="D32" t="s">
-        <v>215</v>
-      </c>
-      <c r="E32" t="s">
-        <v>230</v>
-      </c>
-      <c r="F32" t="s">
-        <v>253</v>
+    <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="C33" t="s">
         <v>214</v>
@@ -2060,18 +2060,18 @@
         <v>215</v>
       </c>
       <c r="E33" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="F33" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B34" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C34" t="s">
         <v>214</v>
@@ -2080,38 +2080,38 @@
         <v>215</v>
       </c>
       <c r="E34" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="F34" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F35" s="2" t="s">
         <v>261</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>143</v>
+      </c>
+      <c r="C35" t="s">
+        <v>214</v>
+      </c>
+      <c r="D35" t="s">
+        <v>215</v>
+      </c>
+      <c r="E35" t="s">
+        <v>250</v>
+      </c>
+      <c r="F35" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B36" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="C36" t="s">
         <v>214</v>
@@ -2120,18 +2120,18 @@
         <v>215</v>
       </c>
       <c r="E36" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="F36" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="B37" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="C37" t="s">
         <v>214</v>
@@ -2140,18 +2140,18 @@
         <v>215</v>
       </c>
       <c r="E37" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="F37" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B38" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C38" t="s">
         <v>214</v>
@@ -2160,7 +2160,7 @@
         <v>215</v>
       </c>
       <c r="E38" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="F38" t="s">
         <v>253</v>
@@ -2168,10 +2168,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B39" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C39" t="s">
         <v>214</v>
@@ -2180,7 +2180,7 @@
         <v>215</v>
       </c>
       <c r="E39" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="F39" t="s">
         <v>253</v>
@@ -2188,10 +2188,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B40" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C40" t="s">
         <v>214</v>
@@ -2200,7 +2200,7 @@
         <v>215</v>
       </c>
       <c r="E40" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="F40" t="s">
         <v>253</v>
@@ -2208,10 +2208,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B41" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C41" t="s">
         <v>214</v>
@@ -2220,7 +2220,7 @@
         <v>215</v>
       </c>
       <c r="E41" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F41" t="s">
         <v>253</v>
@@ -2228,10 +2228,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B42" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C42" t="s">
         <v>214</v>
@@ -2240,7 +2240,7 @@
         <v>215</v>
       </c>
       <c r="E42" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F42" t="s">
         <v>253</v>
@@ -2248,10 +2248,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B43" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C43" t="s">
         <v>214</v>
@@ -2260,7 +2260,7 @@
         <v>215</v>
       </c>
       <c r="E43" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F43" t="s">
         <v>253</v>
@@ -2268,10 +2268,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C44" t="s">
         <v>214</v>
@@ -2280,7 +2280,7 @@
         <v>215</v>
       </c>
       <c r="E44" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="F44" t="s">
         <v>253</v>
@@ -2288,10 +2288,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B45" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C45" t="s">
         <v>214</v>
@@ -2300,7 +2300,7 @@
         <v>215</v>
       </c>
       <c r="E45" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="F45" t="s">
         <v>253</v>
@@ -2308,10 +2308,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B46" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="C46" t="s">
         <v>214</v>
@@ -2320,7 +2320,7 @@
         <v>215</v>
       </c>
       <c r="E46" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="F46" t="s">
         <v>253</v>
@@ -2328,10 +2328,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B47" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C47" t="s">
         <v>214</v>
@@ -2340,7 +2340,7 @@
         <v>215</v>
       </c>
       <c r="E47" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F47" t="s">
         <v>253</v>
@@ -2348,10 +2348,10 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B48" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C48" t="s">
         <v>214</v>
@@ -2360,7 +2360,7 @@
         <v>215</v>
       </c>
       <c r="E48" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F48" t="s">
         <v>253</v>
@@ -2368,10 +2368,10 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B49" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C49" t="s">
         <v>214</v>
@@ -2380,7 +2380,7 @@
         <v>215</v>
       </c>
       <c r="E49" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F49" t="s">
         <v>253</v>
@@ -2388,10 +2388,10 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="C50" t="s">
         <v>214</v>
@@ -2400,18 +2400,18 @@
         <v>215</v>
       </c>
       <c r="E50" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="F50" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B51" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C51" t="s">
         <v>214</v>
@@ -2420,18 +2420,18 @@
         <v>215</v>
       </c>
       <c r="E51" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="F51" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="B52" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="C52" t="s">
         <v>214</v>
@@ -2440,18 +2440,18 @@
         <v>215</v>
       </c>
       <c r="E52" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="F52" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B53" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="C53" t="s">
         <v>214</v>
@@ -2460,18 +2460,18 @@
         <v>215</v>
       </c>
       <c r="E53" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="F53" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B54" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C54" t="s">
         <v>214</v>
@@ -2480,18 +2480,18 @@
         <v>215</v>
       </c>
       <c r="E54" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="F54" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B55" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C55" t="s">
         <v>214</v>
@@ -2500,18 +2500,18 @@
         <v>215</v>
       </c>
       <c r="E55" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="F55" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B56" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C56" t="s">
         <v>214</v>
@@ -2520,18 +2520,18 @@
         <v>215</v>
       </c>
       <c r="E56" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="F56" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="B57" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="C57" t="s">
         <v>214</v>
@@ -2540,18 +2540,18 @@
         <v>215</v>
       </c>
       <c r="E57" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="F57" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B58" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C58" t="s">
         <v>214</v>
@@ -2560,18 +2560,18 @@
         <v>215</v>
       </c>
       <c r="E58" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="F58" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C59" t="s">
         <v>214</v>
@@ -2580,18 +2580,18 @@
         <v>215</v>
       </c>
       <c r="E59" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="F59" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B60" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C60" t="s">
         <v>214</v>
@@ -2600,18 +2600,18 @@
         <v>215</v>
       </c>
       <c r="E60" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="F60" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B61" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C61" t="s">
         <v>214</v>
@@ -2620,38 +2620,38 @@
         <v>215</v>
       </c>
       <c r="E61" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="F61" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>5</v>
-      </c>
-      <c r="B62" t="s">
-        <v>110</v>
-      </c>
-      <c r="C62" t="s">
-        <v>214</v>
-      </c>
-      <c r="D62" t="s">
-        <v>215</v>
-      </c>
-      <c r="E62" t="s">
-        <v>217</v>
-      </c>
-      <c r="F62" t="s">
         <v>271</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B63" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C63" t="s">
         <v>214</v>
@@ -2660,18 +2660,18 @@
         <v>215</v>
       </c>
       <c r="E63" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F63" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B64" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C64" t="s">
         <v>214</v>
@@ -2680,69 +2680,9 @@
         <v>215</v>
       </c>
       <c r="E64" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F64" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>40</v>
-      </c>
-      <c r="B66" t="s">
-        <v>145</v>
-      </c>
-      <c r="C66" t="s">
-        <v>214</v>
-      </c>
-      <c r="D66" t="s">
-        <v>215</v>
-      </c>
-      <c r="E66" t="s">
-        <v>216</v>
-      </c>
-      <c r="F66" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>74</v>
-      </c>
-      <c r="B67" t="s">
-        <v>179</v>
-      </c>
-      <c r="C67" t="s">
-        <v>214</v>
-      </c>
-      <c r="D67" t="s">
-        <v>215</v>
-      </c>
-      <c r="E67" t="s">
-        <v>216</v>
-      </c>
-      <c r="F67" t="s">
         <v>272</v>
       </c>
     </row>
@@ -2753,10 +2693,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60561D98-9A45-5549-81BB-1E64C87C6D62}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2836,55 +2776,55 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="B6" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C6" t="s">
         <v>280</v>
       </c>
-      <c r="D6" t="s">
-        <v>289</v>
+      <c r="D6">
+        <v>999</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C7" t="s">
-        <v>280</v>
-      </c>
-      <c r="D7">
-        <v>999</v>
+        <v>292</v>
+      </c>
+      <c r="D7" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B8" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C8" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D8" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>219</v>
-      </c>
-      <c r="B9" t="s">
-        <v>294</v>
+        <v>236</v>
+      </c>
+      <c r="B9">
+        <v>999</v>
       </c>
       <c r="C9" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="D9">
         <v>999</v>
@@ -2892,10 +2832,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>236</v>
-      </c>
-      <c r="B10">
-        <v>999</v>
+        <v>244</v>
+      </c>
+      <c r="B10" t="s">
+        <v>297</v>
       </c>
       <c r="C10" t="s">
         <v>280</v>
@@ -2906,13 +2846,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="B11" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C11" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="D11">
         <v>999</v>
@@ -2920,38 +2860,38 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="B12" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C12" t="s">
-        <v>300</v>
-      </c>
-      <c r="D12">
-        <v>999</v>
+        <v>302</v>
+      </c>
+      <c r="D12" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>218</v>
-      </c>
-      <c r="B13" t="s">
-        <v>301</v>
+        <v>250</v>
+      </c>
+      <c r="B13">
+        <v>999</v>
       </c>
       <c r="C13" t="s">
-        <v>302</v>
-      </c>
-      <c r="D13" t="s">
-        <v>303</v>
+        <v>280</v>
+      </c>
+      <c r="D13">
+        <v>999</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>250</v>
-      </c>
-      <c r="B14">
-        <v>999</v>
+        <v>243</v>
+      </c>
+      <c r="B14" t="s">
+        <v>308</v>
       </c>
       <c r="C14" t="s">
         <v>280</v>
@@ -2962,10 +2902,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B15" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C15" t="s">
         <v>280</v>
@@ -2976,10 +2916,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="B16" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C16" t="s">
         <v>280</v>
@@ -2990,10 +2930,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>247</v>
-      </c>
-      <c r="B17" t="s">
-        <v>314</v>
+        <v>248</v>
+      </c>
+      <c r="B17">
+        <v>999</v>
       </c>
       <c r="C17" t="s">
         <v>280</v>
@@ -3004,13 +2944,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="B18">
         <v>999</v>
       </c>
-      <c r="C18" t="s">
-        <v>280</v>
+      <c r="C18">
+        <v>999</v>
       </c>
       <c r="D18">
         <v>999</v>
@@ -3018,10 +2958,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>223</v>
-      </c>
-      <c r="B19">
-        <v>999</v>
+        <v>237</v>
+      </c>
+      <c r="B19" t="s">
+        <v>315</v>
       </c>
       <c r="C19">
         <v>999</v>
@@ -3032,13 +2972,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="B20" t="s">
-        <v>315</v>
-      </c>
-      <c r="C20">
-        <v>999</v>
+        <v>317</v>
+      </c>
+      <c r="C20" t="s">
+        <v>318</v>
       </c>
       <c r="D20">
         <v>999</v>
@@ -3046,43 +2986,29 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B21" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C21" t="s">
-        <v>318</v>
-      </c>
-      <c r="D21">
-        <v>999</v>
+        <v>320</v>
+      </c>
+      <c r="D21" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B22" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C22" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="D22" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>216</v>
-      </c>
-      <c r="B23" t="s">
-        <v>322</v>
-      </c>
-      <c r="C23" t="s">
-        <v>298</v>
-      </c>
-      <c r="D23" t="s">
         <v>323</v>
       </c>
     </row>

--- a/fred_codes.xlsx
+++ b/fred_codes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrealandini/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A90FB1-B39D-544E-AF98-A255DF4A24CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057DAFEC-6C12-C444-BA5E-0FCB3EF6F08E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="15360" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FRED codes" sheetId="3" r:id="rId1"/>
@@ -19,9 +19,9 @@
     <sheet name="Portfolio OLD" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'FRED codes'!$A$1:$F$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'FRED codes'!$A$1:$F$61</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'FRED codes OLD'!$A$1:$E$106</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Portfolio!$A$1:$D$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Portfolio!$A$1:$D$21</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Portfolio OLD'!$A$1:$D$36</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="325">
   <si>
     <t>Name</t>
   </si>
@@ -1391,10 +1391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08C33E96-5359-9344-AF02-9222616EDDC0}">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1608,10 +1608,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="C11" t="s">
         <v>214</v>
@@ -1620,18 +1620,18 @@
         <v>215</v>
       </c>
       <c r="E11" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="F11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="C12" t="s">
         <v>214</v>
@@ -1640,18 +1640,18 @@
         <v>215</v>
       </c>
       <c r="E12" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="F12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="B13" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="C13" t="s">
         <v>214</v>
@@ -1660,18 +1660,18 @@
         <v>215</v>
       </c>
       <c r="E13" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="F13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="C14" t="s">
         <v>214</v>
@@ -1680,7 +1680,7 @@
         <v>215</v>
       </c>
       <c r="E14" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="F14" t="s">
         <v>253</v>
@@ -1688,10 +1688,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="C15" t="s">
         <v>214</v>
@@ -1700,7 +1700,7 @@
         <v>215</v>
       </c>
       <c r="E15" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="F15" t="s">
         <v>253</v>
@@ -1708,10 +1708,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B16" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="C16" t="s">
         <v>214</v>
@@ -1720,7 +1720,7 @@
         <v>215</v>
       </c>
       <c r="E16" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="F16" t="s">
         <v>253</v>
@@ -1728,10 +1728,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C17" t="s">
         <v>214</v>
@@ -1740,7 +1740,7 @@
         <v>215</v>
       </c>
       <c r="E17" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="F17" t="s">
         <v>253</v>
@@ -1748,10 +1748,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C18" t="s">
         <v>214</v>
@@ -1760,7 +1760,7 @@
         <v>215</v>
       </c>
       <c r="E18" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="F18" t="s">
         <v>253</v>
@@ -1768,10 +1768,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B19" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C19" t="s">
         <v>214</v>
@@ -1780,7 +1780,7 @@
         <v>215</v>
       </c>
       <c r="E19" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="F19" t="s">
         <v>253</v>
@@ -1788,10 +1788,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="C20" t="s">
         <v>214</v>
@@ -1800,7 +1800,7 @@
         <v>215</v>
       </c>
       <c r="E20" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="F20" t="s">
         <v>253</v>
@@ -1808,10 +1808,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C21" t="s">
         <v>214</v>
@@ -1820,7 +1820,7 @@
         <v>215</v>
       </c>
       <c r="E21" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="F21" t="s">
         <v>253</v>
@@ -1828,10 +1828,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B22" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="C22" t="s">
         <v>214</v>
@@ -1840,7 +1840,7 @@
         <v>215</v>
       </c>
       <c r="E22" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="F22" t="s">
         <v>253</v>
@@ -1848,10 +1848,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C23" t="s">
         <v>214</v>
@@ -1860,7 +1860,7 @@
         <v>215</v>
       </c>
       <c r="E23" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="F23" t="s">
         <v>253</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B24" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="C24" t="s">
         <v>214</v>
@@ -1880,7 +1880,7 @@
         <v>215</v>
       </c>
       <c r="E24" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="F24" t="s">
         <v>253</v>
@@ -1888,10 +1888,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B25" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C25" t="s">
         <v>214</v>
@@ -1900,7 +1900,7 @@
         <v>215</v>
       </c>
       <c r="E25" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="F25" t="s">
         <v>253</v>
@@ -1908,10 +1908,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C26" t="s">
         <v>214</v>
@@ -1920,7 +1920,7 @@
         <v>215</v>
       </c>
       <c r="E26" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="F26" t="s">
         <v>253</v>
@@ -1928,10 +1928,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B27" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C27" t="s">
         <v>214</v>
@@ -1940,7 +1940,7 @@
         <v>215</v>
       </c>
       <c r="E27" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="F27" t="s">
         <v>253</v>
@@ -1948,10 +1948,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B28" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="C28" t="s">
         <v>214</v>
@@ -1960,38 +1960,38 @@
         <v>215</v>
       </c>
       <c r="E28" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="F28" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" t="s">
-        <v>123</v>
-      </c>
-      <c r="C29" t="s">
-        <v>214</v>
-      </c>
-      <c r="D29" t="s">
-        <v>215</v>
-      </c>
-      <c r="E29" t="s">
-        <v>230</v>
-      </c>
-      <c r="F29" t="s">
-        <v>253</v>
+    <row r="29" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="C30" t="s">
         <v>214</v>
@@ -2000,18 +2000,18 @@
         <v>215</v>
       </c>
       <c r="E30" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="F30" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B31" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C31" t="s">
         <v>214</v>
@@ -2020,38 +2020,38 @@
         <v>215</v>
       </c>
       <c r="E31" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="F31" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F32" s="2" t="s">
         <v>261</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" t="s">
+        <v>143</v>
+      </c>
+      <c r="C32" t="s">
+        <v>214</v>
+      </c>
+      <c r="D32" t="s">
+        <v>215</v>
+      </c>
+      <c r="E32" t="s">
+        <v>250</v>
+      </c>
+      <c r="F32" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B33" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="C33" t="s">
         <v>214</v>
@@ -2060,18 +2060,18 @@
         <v>215</v>
       </c>
       <c r="E33" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="F33" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="B34" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="C34" t="s">
         <v>214</v>
@@ -2080,18 +2080,18 @@
         <v>215</v>
       </c>
       <c r="E34" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="F34" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C35" t="s">
         <v>214</v>
@@ -2100,7 +2100,7 @@
         <v>215</v>
       </c>
       <c r="E35" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="F35" t="s">
         <v>253</v>
@@ -2108,10 +2108,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B36" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C36" t="s">
         <v>214</v>
@@ -2120,7 +2120,7 @@
         <v>215</v>
       </c>
       <c r="E36" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="F36" t="s">
         <v>253</v>
@@ -2128,10 +2128,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B37" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C37" t="s">
         <v>214</v>
@@ -2140,7 +2140,7 @@
         <v>215</v>
       </c>
       <c r="E37" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="F37" t="s">
         <v>253</v>
@@ -2148,10 +2148,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C38" t="s">
         <v>214</v>
@@ -2160,7 +2160,7 @@
         <v>215</v>
       </c>
       <c r="E38" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F38" t="s">
         <v>253</v>
@@ -2168,10 +2168,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B39" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C39" t="s">
         <v>214</v>
@@ -2180,7 +2180,7 @@
         <v>215</v>
       </c>
       <c r="E39" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F39" t="s">
         <v>253</v>
@@ -2188,10 +2188,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B40" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C40" t="s">
         <v>214</v>
@@ -2200,7 +2200,7 @@
         <v>215</v>
       </c>
       <c r="E40" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F40" t="s">
         <v>253</v>
@@ -2208,10 +2208,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C41" t="s">
         <v>214</v>
@@ -2220,7 +2220,7 @@
         <v>215</v>
       </c>
       <c r="E41" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="F41" t="s">
         <v>253</v>
@@ -2228,10 +2228,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B42" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C42" t="s">
         <v>214</v>
@@ -2240,7 +2240,7 @@
         <v>215</v>
       </c>
       <c r="E42" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="F42" t="s">
         <v>253</v>
@@ -2248,10 +2248,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B43" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="C43" t="s">
         <v>214</v>
@@ -2260,7 +2260,7 @@
         <v>215</v>
       </c>
       <c r="E43" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="F43" t="s">
         <v>253</v>
@@ -2268,10 +2268,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B44" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C44" t="s">
         <v>214</v>
@@ -2280,7 +2280,7 @@
         <v>215</v>
       </c>
       <c r="E44" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F44" t="s">
         <v>253</v>
@@ -2288,10 +2288,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C45" t="s">
         <v>214</v>
@@ -2300,7 +2300,7 @@
         <v>215</v>
       </c>
       <c r="E45" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F45" t="s">
         <v>253</v>
@@ -2308,10 +2308,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B46" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C46" t="s">
         <v>214</v>
@@ -2320,7 +2320,7 @@
         <v>215</v>
       </c>
       <c r="E46" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F46" t="s">
         <v>253</v>
@@ -2328,10 +2328,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="C47" t="s">
         <v>214</v>
@@ -2340,18 +2340,18 @@
         <v>215</v>
       </c>
       <c r="E47" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="F47" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B48" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C48" t="s">
         <v>214</v>
@@ -2360,18 +2360,18 @@
         <v>215</v>
       </c>
       <c r="E48" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="F48" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="B49" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="C49" t="s">
         <v>214</v>
@@ -2380,18 +2380,18 @@
         <v>215</v>
       </c>
       <c r="E49" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="F49" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B50" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="C50" t="s">
         <v>214</v>
@@ -2400,18 +2400,18 @@
         <v>215</v>
       </c>
       <c r="E50" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="F50" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B51" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C51" t="s">
         <v>214</v>
@@ -2420,18 +2420,18 @@
         <v>215</v>
       </c>
       <c r="E51" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="F51" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B52" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C52" t="s">
         <v>214</v>
@@ -2440,18 +2440,18 @@
         <v>215</v>
       </c>
       <c r="E52" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="F52" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C53" t="s">
         <v>214</v>
@@ -2460,18 +2460,18 @@
         <v>215</v>
       </c>
       <c r="E53" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="F53" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="B54" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="C54" t="s">
         <v>214</v>
@@ -2480,18 +2480,18 @@
         <v>215</v>
       </c>
       <c r="E54" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="F54" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B55" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C55" t="s">
         <v>214</v>
@@ -2500,18 +2500,18 @@
         <v>215</v>
       </c>
       <c r="E55" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="F55" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C56" t="s">
         <v>214</v>
@@ -2520,18 +2520,18 @@
         <v>215</v>
       </c>
       <c r="E56" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="F56" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B57" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C57" t="s">
         <v>214</v>
@@ -2540,18 +2540,18 @@
         <v>215</v>
       </c>
       <c r="E57" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="F57" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B58" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C58" t="s">
         <v>214</v>
@@ -2560,38 +2560,38 @@
         <v>215</v>
       </c>
       <c r="E58" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="F58" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>5</v>
-      </c>
-      <c r="B59" t="s">
-        <v>110</v>
-      </c>
-      <c r="C59" t="s">
-        <v>214</v>
-      </c>
-      <c r="D59" t="s">
-        <v>215</v>
-      </c>
-      <c r="E59" t="s">
-        <v>217</v>
-      </c>
-      <c r="F59" t="s">
         <v>271</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B60" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C60" t="s">
         <v>214</v>
@@ -2600,18 +2600,18 @@
         <v>215</v>
       </c>
       <c r="E60" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F60" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B61" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C61" t="s">
         <v>214</v>
@@ -2620,69 +2620,9 @@
         <v>215</v>
       </c>
       <c r="E61" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F61" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>40</v>
-      </c>
-      <c r="B63" t="s">
-        <v>145</v>
-      </c>
-      <c r="C63" t="s">
-        <v>214</v>
-      </c>
-      <c r="D63" t="s">
-        <v>215</v>
-      </c>
-      <c r="E63" t="s">
-        <v>216</v>
-      </c>
-      <c r="F63" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>74</v>
-      </c>
-      <c r="B64" t="s">
-        <v>179</v>
-      </c>
-      <c r="C64" t="s">
-        <v>214</v>
-      </c>
-      <c r="D64" t="s">
-        <v>215</v>
-      </c>
-      <c r="E64" t="s">
-        <v>216</v>
-      </c>
-      <c r="F64" t="s">
         <v>272</v>
       </c>
     </row>
@@ -2693,10 +2633,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60561D98-9A45-5549-81BB-1E64C87C6D62}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2762,66 +2702,66 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="B5" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="C5" t="s">
-        <v>283</v>
-      </c>
-      <c r="D5" t="s">
-        <v>284</v>
+        <v>280</v>
+      </c>
+      <c r="D5">
+        <v>999</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="B6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C6" t="s">
-        <v>280</v>
-      </c>
-      <c r="D6">
-        <v>999</v>
+        <v>292</v>
+      </c>
+      <c r="D6" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>219</v>
-      </c>
-      <c r="B8" t="s">
-        <v>294</v>
+        <v>236</v>
+      </c>
+      <c r="B8">
+        <v>999</v>
       </c>
       <c r="C8" t="s">
-        <v>295</v>
-      </c>
-      <c r="D8" t="s">
-        <v>289</v>
+        <v>280</v>
+      </c>
+      <c r="D8">
+        <v>999</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>236</v>
-      </c>
-      <c r="B9">
-        <v>999</v>
+        <v>244</v>
+      </c>
+      <c r="B9" t="s">
+        <v>297</v>
       </c>
       <c r="C9" t="s">
         <v>280</v>
@@ -2832,13 +2772,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="B10" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C10" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="D10">
         <v>999</v>
@@ -2846,38 +2786,38 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="B11" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C11" t="s">
-        <v>300</v>
-      </c>
-      <c r="D11">
-        <v>999</v>
+        <v>302</v>
+      </c>
+      <c r="D11" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>218</v>
-      </c>
-      <c r="B12" t="s">
-        <v>301</v>
+        <v>250</v>
+      </c>
+      <c r="B12">
+        <v>999</v>
       </c>
       <c r="C12" t="s">
-        <v>302</v>
-      </c>
-      <c r="D12" t="s">
-        <v>303</v>
+        <v>280</v>
+      </c>
+      <c r="D12">
+        <v>999</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>250</v>
-      </c>
-      <c r="B13">
-        <v>999</v>
+        <v>243</v>
+      </c>
+      <c r="B13" t="s">
+        <v>308</v>
       </c>
       <c r="C13" t="s">
         <v>280</v>
@@ -2888,10 +2828,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B14" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C14" t="s">
         <v>280</v>
@@ -2902,10 +2842,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="B15" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C15" t="s">
         <v>280</v>
@@ -2916,10 +2856,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>247</v>
-      </c>
-      <c r="B16" t="s">
-        <v>314</v>
+        <v>248</v>
+      </c>
+      <c r="B16">
+        <v>999</v>
       </c>
       <c r="C16" t="s">
         <v>280</v>
@@ -2930,13 +2870,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="B17">
         <v>999</v>
       </c>
-      <c r="C17" t="s">
-        <v>280</v>
+      <c r="C17">
+        <v>999</v>
       </c>
       <c r="D17">
         <v>999</v>
@@ -2944,10 +2884,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>223</v>
-      </c>
-      <c r="B18">
-        <v>999</v>
+        <v>237</v>
+      </c>
+      <c r="B18" t="s">
+        <v>315</v>
       </c>
       <c r="C18">
         <v>999</v>
@@ -2958,13 +2898,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="B19" t="s">
-        <v>315</v>
-      </c>
-      <c r="C19">
-        <v>999</v>
+        <v>317</v>
+      </c>
+      <c r="C19" t="s">
+        <v>318</v>
       </c>
       <c r="D19">
         <v>999</v>
@@ -2972,43 +2912,29 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B20" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C20" t="s">
-        <v>318</v>
-      </c>
-      <c r="D20">
-        <v>999</v>
+        <v>320</v>
+      </c>
+      <c r="D20" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B21" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C21" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="D21" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>216</v>
-      </c>
-      <c r="B22" t="s">
-        <v>322</v>
-      </c>
-      <c r="C22" t="s">
-        <v>298</v>
-      </c>
-      <c r="D22" t="s">
         <v>323</v>
       </c>
     </row>
